--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H2">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.44646243250828</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N2">
-        <v>0.44646243250828</v>
+        <v>2.036417</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="Q2">
-        <v>22.41210503090391</v>
+        <v>35.12689175326845</v>
       </c>
       <c r="R2">
-        <v>22.41210503090391</v>
+        <v>316.142025779416</v>
       </c>
       <c r="S2">
-        <v>0.1459195924476312</v>
+        <v>0.08527619096414218</v>
       </c>
       <c r="T2">
-        <v>0.1459195924476312</v>
+        <v>0.08527619096414218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.5180696843527</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H3">
-        <v>64.5180696843527</v>
+        <v>155.244248</v>
       </c>
       <c r="I3">
-        <v>0.1875414395760202</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J3">
-        <v>0.1875414395760202</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.44646243250828</v>
+        <v>0.019209</v>
       </c>
       <c r="N3">
-        <v>0.44646243250828</v>
+        <v>0.057627</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01643361449404475</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01643361449404475</v>
       </c>
       <c r="Q3">
-        <v>28.80489433201482</v>
+        <v>0.9940289199440001</v>
       </c>
       <c r="R3">
-        <v>28.80489433201482</v>
+        <v>8.946260279496</v>
       </c>
       <c r="S3">
-        <v>0.1875414395760202</v>
+        <v>0.002413165406049262</v>
       </c>
       <c r="T3">
-        <v>0.1875414395760202</v>
+        <v>0.002413165406049262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.866937128029</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H4">
-        <v>101.866937128029</v>
+        <v>155.244248</v>
       </c>
       <c r="I4">
-        <v>0.2961073095902586</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J4">
-        <v>0.2961073095902586</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.44646243250828</v>
+        <v>0.47087</v>
       </c>
       <c r="N4">
-        <v>0.44646243250828</v>
+        <v>1.41261</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4028370064454604</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4028370064454605</v>
       </c>
       <c r="Q4">
-        <v>45.47976054234785</v>
+        <v>24.36661968525333</v>
       </c>
       <c r="R4">
-        <v>45.47976054234785</v>
+        <v>219.29957716728</v>
       </c>
       <c r="S4">
-        <v>0.2961073095902586</v>
+        <v>0.05915389633746765</v>
       </c>
       <c r="T4">
-        <v>0.2961073095902586</v>
+        <v>0.05915389633746766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.1842213585752</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H5">
-        <v>83.1842213585752</v>
+        <v>193.575878</v>
       </c>
       <c r="I5">
-        <v>0.2418003002867435</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J5">
-        <v>0.2418003002867435</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.44646243250828</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N5">
-        <v>0.44646243250828</v>
+        <v>2.036417</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="Q5">
-        <v>37.13862981405671</v>
+        <v>43.80013430545844</v>
       </c>
       <c r="R5">
-        <v>37.13862981405671</v>
+        <v>394.201208749126</v>
       </c>
       <c r="S5">
-        <v>0.2418003002867435</v>
+        <v>0.1063318850845893</v>
       </c>
       <c r="T5">
-        <v>0.2418003002867435</v>
+        <v>0.1063318850845894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>64.52529266666666</v>
+      </c>
+      <c r="H6">
+        <v>193.575878</v>
+      </c>
+      <c r="I6">
+        <v>0.1831005782015253</v>
+      </c>
+      <c r="J6">
+        <v>0.1831005782015253</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.019209</v>
+      </c>
+      <c r="N6">
+        <v>0.057627</v>
+      </c>
+      <c r="O6">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P6">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q6">
+        <v>1.239466346834</v>
+      </c>
+      <c r="R6">
+        <v>11.155197121506</v>
+      </c>
+      <c r="S6">
+        <v>0.00300900431580056</v>
+      </c>
+      <c r="T6">
+        <v>0.00300900431580056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>44.2518034638554</v>
-      </c>
-      <c r="H6">
-        <v>44.2518034638554</v>
-      </c>
-      <c r="I6">
-        <v>0.1286313580993465</v>
-      </c>
-      <c r="J6">
-        <v>0.1286313580993465</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.44646243250828</v>
-      </c>
-      <c r="N6">
-        <v>0.44646243250828</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>19.75676781735121</v>
-      </c>
-      <c r="R6">
-        <v>19.75676781735121</v>
-      </c>
-      <c r="S6">
-        <v>0.1286313580993465</v>
-      </c>
-      <c r="T6">
-        <v>0.1286313580993465</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>64.52529266666666</v>
+      </c>
+      <c r="H7">
+        <v>193.575878</v>
+      </c>
+      <c r="I7">
+        <v>0.1831005782015253</v>
+      </c>
+      <c r="J7">
+        <v>0.1831005782015253</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.47087</v>
+      </c>
+      <c r="N7">
+        <v>1.41261</v>
+      </c>
+      <c r="O7">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P7">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q7">
+        <v>30.38302455795333</v>
+      </c>
+      <c r="R7">
+        <v>273.44722102158</v>
+      </c>
+      <c r="S7">
+        <v>0.07375968880113537</v>
+      </c>
+      <c r="T7">
+        <v>0.0737596888011354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>102.0393243333333</v>
+      </c>
+      <c r="H8">
+        <v>306.117973</v>
+      </c>
+      <c r="I8">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="J8">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N8">
+        <v>2.036417</v>
+      </c>
+      <c r="O8">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="P8">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="Q8">
+        <v>69.26487158030457</v>
+      </c>
+      <c r="R8">
+        <v>623.383844222741</v>
+      </c>
+      <c r="S8">
+        <v>0.1681516388491516</v>
+      </c>
+      <c r="T8">
+        <v>0.1681516388491516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>102.0393243333333</v>
+      </c>
+      <c r="H9">
+        <v>306.117973</v>
+      </c>
+      <c r="I9">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="J9">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.019209</v>
+      </c>
+      <c r="N9">
+        <v>0.057627</v>
+      </c>
+      <c r="O9">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P9">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q9">
+        <v>1.960073381119</v>
+      </c>
+      <c r="R9">
+        <v>17.640660430071</v>
+      </c>
+      <c r="S9">
+        <v>0.004758394028315446</v>
+      </c>
+      <c r="T9">
+        <v>0.004758394028315446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>102.0393243333333</v>
+      </c>
+      <c r="H10">
+        <v>306.117973</v>
+      </c>
+      <c r="I10">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="J10">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.47087</v>
+      </c>
+      <c r="N10">
+        <v>1.41261</v>
+      </c>
+      <c r="O10">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P10">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q10">
+        <v>48.04725664883667</v>
+      </c>
+      <c r="R10">
+        <v>432.42530983953</v>
+      </c>
+      <c r="S10">
+        <v>0.1166424590615281</v>
+      </c>
+      <c r="T10">
+        <v>0.1166424590615281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>84.450424</v>
+      </c>
+      <c r="H11">
+        <v>253.351272</v>
+      </c>
+      <c r="I11">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="J11">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.036417</v>
+      </c>
+      <c r="O11">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="P11">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="Q11">
+        <v>57.32542636360267</v>
+      </c>
+      <c r="R11">
+        <v>515.9288372724241</v>
+      </c>
+      <c r="S11">
+        <v>0.1391667113623452</v>
+      </c>
+      <c r="T11">
+        <v>0.1391667113623452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>84.450424</v>
+      </c>
+      <c r="H12">
+        <v>253.351272</v>
+      </c>
+      <c r="I12">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="J12">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.019209</v>
+      </c>
+      <c r="N12">
+        <v>0.057627</v>
+      </c>
+      <c r="O12">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P12">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q12">
+        <v>1.622208194616</v>
+      </c>
+      <c r="R12">
+        <v>14.599873751544</v>
+      </c>
+      <c r="S12">
+        <v>0.003938171835963785</v>
+      </c>
+      <c r="T12">
+        <v>0.003938171835963785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>84.450424</v>
+      </c>
+      <c r="H13">
+        <v>253.351272</v>
+      </c>
+      <c r="I13">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="J13">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.47087</v>
+      </c>
+      <c r="N13">
+        <v>1.41261</v>
+      </c>
+      <c r="O13">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P13">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q13">
+        <v>39.76517114887999</v>
+      </c>
+      <c r="R13">
+        <v>357.88654033992</v>
+      </c>
+      <c r="S13">
+        <v>0.09653636172628806</v>
+      </c>
+      <c r="T13">
+        <v>0.09653636172628806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>49.64042033333334</v>
+      </c>
+      <c r="H14">
+        <v>148.921261</v>
+      </c>
+      <c r="I14">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="J14">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.036417</v>
+      </c>
+      <c r="O14">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="P14">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="Q14">
+        <v>33.6961986179819</v>
+      </c>
+      <c r="R14">
+        <v>303.265787561837</v>
+      </c>
+      <c r="S14">
+        <v>0.08180295280026646</v>
+      </c>
+      <c r="T14">
+        <v>0.08180295280026646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>49.64042033333334</v>
+      </c>
+      <c r="H15">
+        <v>148.921261</v>
+      </c>
+      <c r="I15">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="J15">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.019209</v>
+      </c>
+      <c r="N15">
+        <v>0.057627</v>
+      </c>
+      <c r="O15">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P15">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q15">
+        <v>0.9535428341830001</v>
+      </c>
+      <c r="R15">
+        <v>8.581885507647</v>
+      </c>
+      <c r="S15">
+        <v>0.002314878907915694</v>
+      </c>
+      <c r="T15">
+        <v>0.002314878907915694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>49.64042033333334</v>
+      </c>
+      <c r="H16">
+        <v>148.921261</v>
+      </c>
+      <c r="I16">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="J16">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.47087</v>
+      </c>
+      <c r="N16">
+        <v>1.41261</v>
+      </c>
+      <c r="O16">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P16">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q16">
+        <v>23.37418472235667</v>
+      </c>
+      <c r="R16">
+        <v>210.36766250121</v>
+      </c>
+      <c r="S16">
+        <v>0.05674460051904123</v>
+      </c>
+      <c r="T16">
+        <v>0.05674460051904123</v>
       </c>
     </row>
   </sheetData>
